--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Idle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B2F20-C20B-4528-8FC9-74EC149C59DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E65CEA-1CD7-4266-B77E-52ED61A6A53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{9FD7FE67-1CE6-4293-A1FA-57D6EE48A613}"/>
   </bookViews>
@@ -761,7 +761,7 @@
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Mappe1.xlsx
+++ b/Mappe1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Idle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E65CEA-1CD7-4266-B77E-52ED61A6A53E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A278D3C-D1D5-48ED-8621-4B69BDD1143D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{9FD7FE67-1CE6-4293-A1FA-57D6EE48A613}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="99">
   <si>
     <t>Level</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>Devastar</t>
+  </si>
+  <si>
+    <t>Rochhide</t>
+  </si>
+  <si>
+    <t>Andrius</t>
   </si>
 </sst>
 </file>
@@ -430,7 +436,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4F0AF4F6-01A5-490F-A12F-D163FC404A25}" name="Tabelle3" displayName="Tabelle3" ref="E1:I150" totalsRowShown="0">
   <autoFilter ref="E1:I150" xr:uid="{D25B4067-2269-4968-86A4-8FED57F5ADFE}"/>
   <sortState ref="E2:I150">
-    <sortCondition ref="G1:G150"/>
+    <sortCondition ref="E1:E150"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{40153117-DCC6-4405-BB68-C34EA538D956}" name="Id"/>
@@ -761,7 +767,7 @@
   <dimension ref="A1:T150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,19 +842,16 @@
         <v>10.16</v>
       </c>
       <c r="E2">
-        <v>10007</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
+        <v>10000</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -903,16 +906,19 @@
         <v>35.505600000000001</v>
       </c>
       <c r="E3">
-        <v>10016</v>
+        <v>10001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -967,16 +973,16 @@
         <v>86.066496000000001</v>
       </c>
       <c r="E4">
-        <v>10019</v>
+        <v>10002</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -1031,7 +1037,10 @@
         <v>171.87713536000001</v>
       </c>
       <c r="E5">
-        <v>10036</v>
+        <v>10003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -1040,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5">
         <f>SUM(T2:T4)</f>
@@ -1060,19 +1069,19 @@
         <v>302.97747701759999</v>
       </c>
       <c r="E6">
-        <v>10042</v>
+        <v>10004</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -1088,16 +1097,19 @@
         <v>489.41387334041599</v>
       </c>
       <c r="E7">
-        <v>10051</v>
+        <v>10005</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>89</v>
@@ -1140,16 +1152,13 @@
         <v>741.24009307488257</v>
       </c>
       <c r="E8">
-        <v>10060</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
+        <v>10006</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>22</v>
@@ -1159,7 +1168,7 @@
       </c>
       <c r="L8">
         <f>COUNTIFS(G:G, L7, H:H, 2, I:I, K8)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <f>COUNTIFS(G:G, M7, H:H, 2, I:I, K8)</f>
@@ -1175,7 +1184,7 @@
       </c>
       <c r="P8">
         <f>COUNTIFS(G:G, P7, H:H, 2, I:I, K8)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8">
         <f>COUNTIFS(G:G, Q7, H:H, 2, I:I, K8)</f>
@@ -1207,10 +1216,10 @@
         <v>1068.5185079668638</v>
       </c>
       <c r="E9">
-        <v>10061</v>
+        <v>10007</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -1219,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
@@ -1274,19 +1283,16 @@
         <v>1481.321469241562</v>
       </c>
       <c r="E10">
-        <v>10066</v>
-      </c>
-      <c r="F10" t="s">
-        <v>33</v>
+        <v>10008</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
         <v>26</v>
@@ -1341,13 +1347,13 @@
         <v>1989.7329043202119</v>
       </c>
       <c r="E11">
-        <v>10070</v>
+        <v>10009</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -1370,16 +1376,13 @@
         <v>2603.8501690114458</v>
       </c>
       <c r="E12">
-        <v>10074</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
+        <v>10010</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="s">
         <v>23</v>
@@ -1398,16 +1401,19 @@
         <v>3333.7861960532773</v>
       </c>
       <c r="E13">
-        <v>10077</v>
+        <v>10011</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
         <v>90</v>
@@ -1450,16 +1456,13 @@
         <v>4189.6719874218015</v>
       </c>
       <c r="E14">
-        <v>10085</v>
-      </c>
-      <c r="F14" t="s">
-        <v>96</v>
+        <v>10012</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="s">
         <v>22</v>
@@ -1517,23 +1520,23 @@
         <v>5181.6595054092895</v>
       </c>
       <c r="E15">
-        <v>10087</v>
+        <v>10013</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
       </c>
       <c r="L15">
         <f>COUNTIFS(G:G, L13, H:H, 3, I:I, K15)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15">
         <f>COUNTIFS(G:G, M13, H:H, 3, I:I, K15)</f>
@@ -1557,7 +1560,7 @@
       </c>
       <c r="R15">
         <f>COUNTIFS(G:G, R13, H:H, 3, I:I, K15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <f>COUNTIFS(G:G, S13, H:H, 2, I:I, K15)</f>
@@ -1581,16 +1584,16 @@
         <v>6319.9250262747755</v>
       </c>
       <c r="E16">
-        <v>10095</v>
+        <v>10014</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
         <v>26</v>
@@ -1645,19 +1648,16 @@
         <v>7614.6730304787397</v>
       </c>
       <c r="E17">
-        <v>10098</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
+        <v>10015</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
         <v>91</v>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="P17">
         <f t="shared" ref="P17:Q17" si="5">SUM(P2:P16)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q17">
         <f t="shared" si="5"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="R17">
         <f t="shared" ref="R17" si="6">SUM(R2:R16)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S17">
         <f t="shared" ref="S17" si="7">SUM(S2:S16)</f>
@@ -1712,16 +1712,13 @@
         <v>9076.1407153553373</v>
       </c>
       <c r="E18">
-        <v>10100</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
+        <v>10016</v>
       </c>
       <c r="G18" t="s">
         <v>4</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -1740,19 +1737,19 @@
         <v>10714.603229812192</v>
       </c>
       <c r="E19">
-        <v>10103</v>
+        <v>10017</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -1768,19 +1765,16 @@
         <v>12540.379746582143</v>
       </c>
       <c r="E20">
-        <v>10107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
+        <v>10018</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -1796,10 +1790,7 @@
         <v>14563.840506035285</v>
       </c>
       <c r="E21">
-        <v>10109</v>
-      </c>
-      <c r="F21" t="s">
-        <v>55</v>
+        <v>10019</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -1808,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -1824,19 +1815,7 @@
         <v>16795.414987000931</v>
       </c>
       <c r="E22">
-        <v>10110</v>
-      </c>
-      <c r="F22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>22</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -1852,19 +1831,7 @@
         <v>19245.601384921079</v>
       </c>
       <c r="E23">
-        <v>10111</v>
-      </c>
-      <c r="F23" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>22</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -1880,19 +1847,7 @@
         <v>21924.977606508452</v>
       </c>
       <c r="E24">
-        <v>10112</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>23</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -1908,19 +1863,7 @@
         <v>24844.214023549805</v>
       </c>
       <c r="E25">
-        <v>10113</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -1936,19 +1879,7 @@
         <v>28014.088267317773</v>
       </c>
       <c r="E26">
-        <v>10115</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
-        <v>23</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -1964,19 +1895,7 @@
         <v>31445.502390088615</v>
       </c>
       <c r="E27">
-        <v>10116</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -1992,16 +1911,13 @@
         <v>35149.502772502798</v>
       </c>
       <c r="E28">
-        <v>10117</v>
-      </c>
-      <c r="F28" t="s">
-        <v>57</v>
+        <v>10026</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>22</v>
@@ -2020,16 +1936,13 @@
         <v>39137.303216103246</v>
       </c>
       <c r="E29">
-        <v>10120</v>
-      </c>
-      <c r="F29" t="s">
-        <v>60</v>
+        <v>10027</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
         <v>26</v>
@@ -2048,19 +1961,16 @@
         <v>43420.311730679765</v>
       </c>
       <c r="E30">
-        <v>10121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>61</v>
+        <v>10028</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -2076,16 +1986,13 @@
         <v>48010.161607588525</v>
       </c>
       <c r="E31">
-        <v>10122</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
+        <v>10029</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
         <v>22</v>
@@ -2104,19 +2011,13 @@
         <v>52918.747464802691</v>
       </c>
       <c r="E32">
-        <v>10124</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
-        <v>4</v>
+        <v>10030</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2132,19 +2033,16 @@
         <v>58158.267059171121</v>
       </c>
       <c r="E33">
-        <v>10127</v>
-      </c>
-      <c r="F33" t="s">
-        <v>81</v>
+        <v>10031</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H33">
         <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,19 +2058,16 @@
         <v>63741.269788638499</v>
       </c>
       <c r="E34">
-        <v>10128</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
+        <v>10032</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2188,19 +2083,7 @@
         <v>69680.712954820658</v>
       </c>
       <c r="E35">
-        <v>10129</v>
-      </c>
-      <c r="F35" t="s">
-        <v>69</v>
-      </c>
-      <c r="G35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35" t="s">
-        <v>22</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2216,19 +2099,7 @@
         <v>75990.027027591961</v>
       </c>
       <c r="E36">
-        <v>10131</v>
-      </c>
-      <c r="F36" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" t="s">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>22</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2244,19 +2115,19 @@
         <v>82683.191352006674</v>
       </c>
       <c r="E37">
-        <v>10134</v>
+        <v>10035</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2272,16 +2143,13 @@
         <v>89774.821968327742</v>
       </c>
       <c r="E38">
-        <v>10135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
+        <v>10036</v>
       </c>
       <c r="G38" t="s">
         <v>4</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
         <v>23</v>
@@ -2300,19 +2168,16 @@
         <v>97280.273483260185</v>
       </c>
       <c r="E39">
-        <v>10136</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
+        <v>10037</v>
       </c>
       <c r="G39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2328,16 +2193,13 @@
         <v>105215.75724058182</v>
       </c>
       <c r="E40">
-        <v>10137</v>
-      </c>
-      <c r="F40" t="s">
-        <v>77</v>
+        <v>10038</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
         <v>22</v>
@@ -2356,19 +2218,16 @@
         <v>113598.47839907491</v>
       </c>
       <c r="E41">
-        <v>10142</v>
-      </c>
-      <c r="F41" t="s">
-        <v>67</v>
+        <v>10039</v>
       </c>
       <c r="G41" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,19 +2243,16 @@
         <v>122446.79494292691</v>
       </c>
       <c r="E42">
-        <v>10144</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
+        <v>10040</v>
       </c>
       <c r="G42" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2412,16 +2268,13 @@
         <v>131780.4021337952</v>
       </c>
       <c r="E43">
-        <v>10145</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
+        <v>10041</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
         <v>22</v>
@@ -2440,10 +2293,10 @@
         <v>141620.54647520243</v>
       </c>
       <c r="E44">
-        <v>10147</v>
+        <v>10042</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
         <v>4</v>
@@ -2468,19 +2321,16 @@
         <v>151990.27391123481</v>
       </c>
       <c r="E45">
-        <v>10148</v>
-      </c>
-      <c r="F45" t="s">
-        <v>87</v>
+        <v>10043</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2496,16 +2346,16 @@
         <v>162914.71773703239</v>
       </c>
       <c r="E46">
-        <v>10017</v>
+        <v>10044</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
         <v>22</v>
@@ -2524,16 +2374,16 @@
         <v>174421.43257495758</v>
       </c>
       <c r="E47">
-        <v>10009</v>
+        <v>10045</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2549,13 +2399,13 @@
         <v>186540.7817869508</v>
       </c>
       <c r="E48">
-        <v>10029</v>
+        <v>10046</v>
       </c>
       <c r="G48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
         <v>22</v>
@@ -2574,16 +2424,16 @@
         <v>199306.38687286293</v>
       </c>
       <c r="E49">
-        <v>10037</v>
+        <v>10047</v>
       </c>
       <c r="G49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2599,10 +2449,10 @@
         <v>212755.648772521</v>
       </c>
       <c r="E50">
-        <v>10041</v>
+        <v>10048</v>
       </c>
       <c r="G50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2624,16 +2474,13 @@
         <v>226930.35257612437</v>
       </c>
       <c r="E51">
-        <v>10044</v>
-      </c>
-      <c r="F51" t="s">
-        <v>30</v>
+        <v>10049</v>
       </c>
       <c r="G51" t="s">
         <v>6</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
@@ -2652,16 +2499,16 @@
         <v>241877.36898830428</v>
       </c>
       <c r="E52">
-        <v>10049</v>
+        <v>10050</v>
       </c>
       <c r="G52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2677,19 +2524,16 @@
         <v>257649.46802643297</v>
       </c>
       <c r="E53">
-        <v>10054</v>
-      </c>
-      <c r="F53" t="s">
-        <v>94</v>
+        <v>10051</v>
       </c>
       <c r="G53" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2705,19 +2549,16 @@
         <v>274306.26291066222</v>
       </c>
       <c r="E54">
-        <v>10102</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
+        <v>10052</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2733,19 +2574,16 @@
         <v>291915.30497636821</v>
       </c>
       <c r="E55">
-        <v>10105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>48</v>
+        <v>10053</v>
       </c>
       <c r="G55" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2761,10 +2599,10 @@
         <v>310553.35377258714</v>
       </c>
       <c r="E56">
-        <v>10132</v>
+        <v>10054</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
         <v>6</v>
@@ -2789,13 +2627,10 @@
         <v>330307.8503762011</v>
       </c>
       <c r="E57">
-        <v>10133</v>
-      </c>
-      <c r="F57" t="s">
-        <v>73</v>
+        <v>10055</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2817,13 +2652,10 @@
         <v>351278.62643639324</v>
       </c>
       <c r="E58">
-        <v>10146</v>
-      </c>
-      <c r="F58" t="s">
-        <v>85</v>
+        <v>10056</v>
       </c>
       <c r="G58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -2845,13 +2677,13 @@
         <v>373579.88666621619</v>
       </c>
       <c r="E59">
-        <v>10001</v>
+        <v>10057</v>
       </c>
       <c r="G59" t="s">
         <v>8</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
         <v>22</v>
@@ -2870,16 +2702,13 @@
         <v>397342.50853281078</v>
       </c>
       <c r="E60">
-        <v>10003</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
+        <v>10058</v>
       </c>
       <c r="G60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
         <v>22</v>
@@ -2898,10 +2727,10 @@
         <v>422716.70989806054</v>
       </c>
       <c r="E61">
-        <v>10005</v>
+        <v>10059</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -2926,13 +2755,16 @@
         <v>449875.14348175022</v>
       </c>
       <c r="E62">
-        <v>10008</v>
+        <v>10060</v>
+      </c>
+      <c r="F62" t="s">
+        <v>92</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
         <v>22</v>
@@ -2951,16 +2783,19 @@
         <v>479016.48643883027</v>
       </c>
       <c r="E63">
-        <v>10010</v>
+        <v>10061</v>
+      </c>
+      <c r="F63" t="s">
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2976,13 +2811,10 @@
         <v>510369.60426904308</v>
       </c>
       <c r="E64">
-        <v>10011</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
+        <v>10062</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3004,16 +2836,7 @@
         <v>544198.38095209002</v>
       </c>
       <c r="E65">
-        <v>10013</v>
-      </c>
-      <c r="G65" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
-      </c>
-      <c r="I65" t="s">
-        <v>22</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3029,16 +2852,16 @@
         <v>580807.32190442446</v>
       </c>
       <c r="E66">
-        <v>10015</v>
+        <v>10064</v>
       </c>
       <c r="G66" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3054,7 +2877,7 @@
         <v>620548.05340913241</v>
       </c>
       <c r="E67">
-        <v>10027</v>
+        <v>10065</v>
       </c>
       <c r="G67" t="s">
         <v>8</v>
@@ -3063,7 +2886,7 @@
         <v>2</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3079,16 +2902,19 @@
         <v>663826.86195459357</v>
       </c>
       <c r="E68">
-        <v>10028</v>
+        <v>10066</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3104,16 +2930,16 @@
         <v>711113.4398673285</v>
       </c>
       <c r="E69">
-        <v>10031</v>
+        <v>10067</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3129,13 +2955,13 @@
         <v>762951.03024610109</v>
       </c>
       <c r="E70">
-        <v>10046</v>
+        <v>10068</v>
       </c>
       <c r="G70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="s">
         <v>22</v>
@@ -3154,13 +2980,13 @@
         <v>819968.1950854772</v>
       </c>
       <c r="E71">
-        <v>10048</v>
+        <v>10069</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
         <v>22</v>
@@ -3179,10 +3005,10 @@
         <v>882892.46629915352</v>
       </c>
       <c r="E72">
-        <v>10056</v>
+        <v>10070</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -3204,13 +3030,13 @@
         <v>952566.18090701802</v>
       </c>
       <c r="E73">
-        <v>10057</v>
+        <v>10071</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
         <v>22</v>
@@ -3229,19 +3055,19 @@
         <v>1029964.8498521409</v>
       </c>
       <c r="E74">
-        <v>10059</v>
+        <v>10072</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3257,16 +3083,19 @@
         <v>1116218.4658284835</v>
       </c>
       <c r="E75">
-        <v>10065</v>
+        <v>10073</v>
+      </c>
+      <c r="F75" t="s">
+        <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3282,16 +3111,19 @@
         <v>1212636.2203610407</v>
       </c>
       <c r="E76">
-        <v>10078</v>
+        <v>10074</v>
+      </c>
+      <c r="F76" t="s">
+        <v>95</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3307,16 +3139,16 @@
         <v>1320735.1756188071</v>
       </c>
       <c r="E77">
-        <v>10084</v>
+        <v>10075</v>
       </c>
       <c r="G77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3332,16 +3164,16 @@
         <v>1442273.5237178162</v>
       </c>
       <c r="E78">
-        <v>10086</v>
+        <v>10076</v>
       </c>
       <c r="G78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3357,10 +3189,10 @@
         <v>1579289.1675126669</v>
       </c>
       <c r="E79">
-        <v>10091</v>
+        <v>10077</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -3382,19 +3214,16 @@
         <v>1734144.4743146936</v>
       </c>
       <c r="E80">
-        <v>10138</v>
-      </c>
-      <c r="F80" t="s">
-        <v>78</v>
+        <v>10078</v>
       </c>
       <c r="G80" t="s">
         <v>8</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3410,19 +3239,10 @@
         <v>1909578.1902050446</v>
       </c>
       <c r="E81">
-        <v>10143</v>
+        <v>10079</v>
       </c>
       <c r="F81" t="s">
-        <v>82</v>
-      </c>
-      <c r="G81" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81">
-        <v>3</v>
-      </c>
-      <c r="I81" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3438,16 +3258,16 @@
         <v>2108765.6606378518</v>
       </c>
       <c r="E82">
-        <v>10012</v>
+        <v>10080</v>
       </c>
       <c r="G82" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3463,13 +3283,13 @@
         <v>2335388.6863399078</v>
       </c>
       <c r="E83">
-        <v>10014</v>
+        <v>10081</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
@@ -3488,16 +3308,16 @@
         <v>2593716.556154293</v>
       </c>
       <c r="E84">
-        <v>10038</v>
+        <v>10082</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3513,13 +3333,13 @@
         <v>2888700.0451389798</v>
       </c>
       <c r="E85">
-        <v>10047</v>
+        <v>10083</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
         <v>22</v>
@@ -3538,10 +3358,10 @@
         <v>3226080.4523612163</v>
       </c>
       <c r="E86">
-        <v>10067</v>
+        <v>10084</v>
       </c>
       <c r="G86" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -3563,10 +3383,13 @@
         <v>3612516.0847390108</v>
       </c>
       <c r="E87">
-        <v>10081</v>
+        <v>10085</v>
+      </c>
+      <c r="F87" t="s">
+        <v>96</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -3588,19 +3411,16 @@
         <v>4055728.9782972522</v>
       </c>
       <c r="E88">
-        <v>10104</v>
-      </c>
-      <c r="F88" t="s">
-        <v>47</v>
+        <v>10086</v>
       </c>
       <c r="G88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3616,19 +3436,16 @@
         <v>4564675.0948248124</v>
       </c>
       <c r="E89">
-        <v>10035</v>
-      </c>
-      <c r="F89" t="s">
-        <v>28</v>
+        <v>10087</v>
       </c>
       <c r="G89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3644,16 +3461,16 @@
         <v>5149741.7499967823</v>
       </c>
       <c r="E90">
-        <v>10040</v>
+        <v>10088</v>
       </c>
       <c r="G90" t="s">
         <v>5</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3669,7 +3486,7 @@
         <v>5822976.6299962671</v>
       </c>
       <c r="E91">
-        <v>10052</v>
+        <v>10089</v>
       </c>
       <c r="G91" t="s">
         <v>5</v>
@@ -3678,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3694,13 +3511,13 @@
         <v>6598353.4507956691</v>
       </c>
       <c r="E92">
-        <v>10055</v>
+        <v>10090</v>
       </c>
       <c r="G92" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
         <v>23</v>
@@ -3719,16 +3536,16 @@
         <v>7492080.1229229756</v>
       </c>
       <c r="E93">
-        <v>10058</v>
+        <v>10091</v>
       </c>
       <c r="G93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3744,13 +3561,16 @@
         <v>8522956.2225906514</v>
       </c>
       <c r="E94">
-        <v>10069</v>
+        <v>10092</v>
+      </c>
+      <c r="F94" t="s">
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
         <v>22</v>
@@ -3769,16 +3589,16 @@
         <v>9712787.6582051553</v>
       </c>
       <c r="E95">
-        <v>10088</v>
+        <v>10093</v>
       </c>
       <c r="G95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3794,7 +3614,10 @@
         <v>11086867.683517979</v>
       </c>
       <c r="E96">
-        <v>10089</v>
+        <v>10094</v>
+      </c>
+      <c r="F96" t="s">
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>5</v>
@@ -3819,19 +3642,19 @@
         <v>12674534.872880856</v>
       </c>
       <c r="E97">
-        <v>10094</v>
+        <v>10095</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="G97" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3903,19 +3726,19 @@
         <v>19087458.746092234</v>
       </c>
       <c r="E100">
-        <v>10118</v>
+        <v>10098</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3931,19 +3754,19 @@
         <v>21928713.945466992</v>
       </c>
       <c r="E101">
-        <v>10119</v>
+        <v>10099</v>
       </c>
       <c r="F101" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3959,120 +3782,135 @@
         <v>25217574.336741708</v>
       </c>
       <c r="E102">
-        <v>10126</v>
+        <v>10100</v>
       </c>
       <c r="F102" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E103">
-        <v>10141</v>
+        <v>10101</v>
       </c>
       <c r="F103" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E104">
-        <v>10053</v>
+        <v>10102</v>
+      </c>
+      <c r="F104" t="s">
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E105">
-        <v>10000</v>
+        <v>10103</v>
+      </c>
+      <c r="F105" t="s">
+        <v>46</v>
       </c>
       <c r="G105" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I105" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E106">
-        <v>10004</v>
+        <v>10104</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G106" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I106" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E107">
-        <v>10006</v>
+        <v>10105</v>
+      </c>
+      <c r="F107" t="s">
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E108">
-        <v>10018</v>
+        <v>10106</v>
+      </c>
+      <c r="F108" t="s">
+        <v>49</v>
       </c>
       <c r="G108" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E109">
-        <v>10026</v>
+        <v>10107</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
       </c>
       <c r="G109" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I109" t="s">
         <v>22</v>
@@ -4080,38 +3918,47 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E110">
-        <v>10062</v>
+        <v>10108</v>
+      </c>
+      <c r="F110" t="s">
+        <v>51</v>
       </c>
       <c r="G110" t="s">
         <v>7</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E111">
-        <v>10068</v>
+        <v>10109</v>
+      </c>
+      <c r="F111" t="s">
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E112">
-        <v>10071</v>
+        <v>10110</v>
+      </c>
+      <c r="F112" t="s">
+        <v>53</v>
       </c>
       <c r="G112" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -4122,27 +3969,33 @@
     </row>
     <row r="113" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E113">
-        <v>10075</v>
+        <v>10111</v>
+      </c>
+      <c r="F113" t="s">
+        <v>54</v>
       </c>
       <c r="G113" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E114">
-        <v>10076</v>
+        <v>10112</v>
+      </c>
+      <c r="F114" t="s">
+        <v>56</v>
       </c>
       <c r="G114" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
         <v>23</v>
@@ -4150,123 +4003,123 @@
     </row>
     <row r="115" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E115">
-        <v>10080</v>
+        <v>10113</v>
+      </c>
+      <c r="F115" t="s">
+        <v>52</v>
       </c>
       <c r="G115" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E116">
-        <v>10083</v>
-      </c>
-      <c r="G116" t="s">
-        <v>7</v>
-      </c>
-      <c r="H116">
-        <v>3</v>
-      </c>
-      <c r="I116" t="s">
-        <v>22</v>
+        <v>10114</v>
       </c>
     </row>
     <row r="117" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E117">
-        <v>10092</v>
+        <v>10115</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G117" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="118" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E118">
-        <v>10093</v>
+        <v>10116</v>
+      </c>
+      <c r="F118" t="s">
+        <v>57</v>
       </c>
       <c r="G118" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E119">
-        <v>10108</v>
+        <v>10117</v>
       </c>
       <c r="F119" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G119" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E120">
-        <v>10125</v>
+        <v>10118</v>
       </c>
       <c r="F120" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E121">
-        <v>10130</v>
+        <v>10119</v>
       </c>
       <c r="F121" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E122">
-        <v>10039</v>
+        <v>10120</v>
+      </c>
+      <c r="F122" t="s">
+        <v>60</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122" t="s">
         <v>26</v>
@@ -4274,10 +4127,13 @@
     </row>
     <row r="123" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E123">
-        <v>10002</v>
+        <v>10121</v>
+      </c>
+      <c r="F123" t="s">
+        <v>61</v>
       </c>
       <c r="G123" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -4288,27 +4144,33 @@
     </row>
     <row r="124" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E124">
-        <v>10032</v>
+        <v>10122</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
       </c>
       <c r="G124" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E125">
-        <v>10043</v>
+        <v>10123</v>
+      </c>
+      <c r="F125" t="s">
+        <v>63</v>
       </c>
       <c r="G125" t="s">
         <v>11</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="s">
         <v>23</v>
@@ -4316,61 +4178,67 @@
     </row>
     <row r="126" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E126">
-        <v>10050</v>
+        <v>10124</v>
+      </c>
+      <c r="F126" t="s">
+        <v>64</v>
       </c>
       <c r="G126" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E127">
-        <v>10064</v>
+        <v>10125</v>
+      </c>
+      <c r="F127" t="s">
+        <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E128">
-        <v>10072</v>
+        <v>10126</v>
       </c>
       <c r="F128" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H128">
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E129">
-        <v>10073</v>
+        <v>10127</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="G129" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I129" t="s">
         <v>23</v>
@@ -4378,13 +4246,13 @@
     </row>
     <row r="130" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E130">
-        <v>10099</v>
+        <v>10128</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G130" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -4395,13 +4263,13 @@
     </row>
     <row r="131" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E131">
-        <v>10106</v>
+        <v>10129</v>
       </c>
       <c r="F131" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -4412,33 +4280,33 @@
     </row>
     <row r="132" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E132">
-        <v>10123</v>
+        <v>10130</v>
       </c>
       <c r="F132" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G132" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E133">
-        <v>10140</v>
+        <v>10131</v>
       </c>
       <c r="F133" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I133" t="s">
         <v>22</v>
@@ -4446,27 +4314,33 @@
     </row>
     <row r="134" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E134">
-        <v>10045</v>
+        <v>10132</v>
+      </c>
+      <c r="F134" t="s">
+        <v>72</v>
       </c>
       <c r="G134" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E135">
-        <v>10082</v>
+        <v>10133</v>
+      </c>
+      <c r="F135" t="s">
+        <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I135" t="s">
         <v>23</v>
@@ -4474,13 +4348,16 @@
     </row>
     <row r="136" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E136">
-        <v>10090</v>
+        <v>10134</v>
+      </c>
+      <c r="F136" t="s">
+        <v>74</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136" t="s">
         <v>23</v>
@@ -4488,93 +4365,228 @@
     </row>
     <row r="137" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E137">
-        <v>10101</v>
+        <v>10135</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H137">
         <v>3</v>
       </c>
       <c r="I137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="138" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E138">
-        <v>10020</v>
+        <v>10136</v>
+      </c>
+      <c r="F138" t="s">
+        <v>76</v>
+      </c>
+      <c r="G138" t="s">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <v>3</v>
+      </c>
+      <c r="I138" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E139">
-        <v>10021</v>
+        <v>10137</v>
+      </c>
+      <c r="F139" t="s">
+        <v>77</v>
+      </c>
+      <c r="G139" t="s">
+        <v>4</v>
+      </c>
+      <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E140">
-        <v>10022</v>
+        <v>10138</v>
+      </c>
+      <c r="F140" t="s">
+        <v>78</v>
+      </c>
+      <c r="G140" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="141" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E141">
-        <v>10023</v>
+        <v>10139</v>
       </c>
     </row>
     <row r="142" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E142">
-        <v>10024</v>
+        <v>10140</v>
+      </c>
+      <c r="F142" t="s">
+        <v>79</v>
+      </c>
+      <c r="G142" t="s">
+        <v>11</v>
+      </c>
+      <c r="H142">
+        <v>3</v>
+      </c>
+      <c r="I142" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E143">
-        <v>10025</v>
+        <v>10141</v>
+      </c>
+      <c r="F143" t="s">
+        <v>80</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E144">
-        <v>10030</v>
+        <v>10142</v>
+      </c>
+      <c r="F144" t="s">
+        <v>67</v>
+      </c>
+      <c r="G144" t="s">
+        <v>4</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I144" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>10143</v>
+      </c>
+      <c r="F145" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>10144</v>
+      </c>
+      <c r="F146" t="s">
+        <v>83</v>
+      </c>
+      <c r="G146" t="s">
+        <v>4</v>
+      </c>
+      <c r="H146">
+        <v>3</v>
+      </c>
+      <c r="I146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>10145</v>
+      </c>
+      <c r="F147" t="s">
+        <v>84</v>
+      </c>
+      <c r="G147" t="s">
+        <v>4</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>10146</v>
+      </c>
+      <c r="F148" t="s">
+        <v>85</v>
+      </c>
+      <c r="G148" t="s">
+        <v>6</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="I148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>10147</v>
+      </c>
+      <c r="F149" t="s">
+        <v>86</v>
+      </c>
+      <c r="G149" t="s">
+        <v>4</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="I149" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>10148</v>
+      </c>
+      <c r="F150" t="s">
+        <v>87</v>
+      </c>
+      <c r="G150" t="s">
+        <v>4</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="I150" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145">
-        <v>10033</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146">
-        <v>10034</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147">
-        <v>10063</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148">
-        <v>10079</v>
-      </c>
-      <c r="F148" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149">
-        <v>10114</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150">
-        <v>10139</v>
       </c>
     </row>
   </sheetData>
